--- a/xlsx_files/Race62.xlsx
+++ b/xlsx_files/Race62.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491CAA5-8F01-46D0-A0D6-1AB1A614A5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018ADF4D-E6E8-476E-9D88-BD4B038698A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="26904" windowHeight="14568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Track Name</t>
   </si>
@@ -78,364 +78,116 @@
     <t>01:58.4450</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleh Pitcik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eugene Borodai</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Viktor Abramov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrii Vorona</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrey Shumarin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evgen Artemenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksii Nuzhnyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Denys Stanovych</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksii Panchenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nikita Dembitskiy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrii Mochulskyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nazarii Prokopov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Artem Bieliavtsev</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Anatoliy Lituchiy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eugene Lazarevych</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrii Hryhorov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vlad Tatara</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksii Berkunskyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrii Tereshchenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Kobrynets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Illia Melnik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Kucherenko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kyrylo Taran</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sergiy Vakula</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Kireyev</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vladyslav Selishchev</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Artem Kalnev</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yevhen Sayko</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tymofii Istomin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Taras Malynovskyi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oleksandr Gnyirya</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vladislav Burlaka</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Andrii Pozdniakov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vova Zaychuk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Matviy Terehow</t>
-    </r>
-  </si>
-  <si>
     <t>Suzuka Circuit</t>
+  </si>
+  <si>
+    <t>Eugene Borodai</t>
+  </si>
+  <si>
+    <t>Viktor Abramov</t>
+  </si>
+  <si>
+    <t>Andrii Vorona</t>
+  </si>
+  <si>
+    <t>Andrey Shumarin</t>
+  </si>
+  <si>
+    <t>Evgen Artemenko</t>
+  </si>
+  <si>
+    <t>Oleksii Nuzhnyi</t>
+  </si>
+  <si>
+    <t>Denys Stanovych</t>
+  </si>
+  <si>
+    <t>Oleksii Panchenko</t>
+  </si>
+  <si>
+    <t>Nikita Dembitskiy</t>
+  </si>
+  <si>
+    <t>Andrii Mochulskyi</t>
+  </si>
+  <si>
+    <t>Nazarii Prokopov</t>
+  </si>
+  <si>
+    <t>Artem Bieliavtsev</t>
+  </si>
+  <si>
+    <t>Anatoliy Lituchiy</t>
+  </si>
+  <si>
+    <t>Eugene Lazarevych</t>
+  </si>
+  <si>
+    <t>Andrii Hryhorov</t>
+  </si>
+  <si>
+    <t>Vlad Tatara</t>
+  </si>
+  <si>
+    <t>Oleksii Berkunskyi</t>
+  </si>
+  <si>
+    <t>Andrii Tereshchenko</t>
+  </si>
+  <si>
+    <t>Oleksandr Kobrynets</t>
+  </si>
+  <si>
+    <t>Illia Melnik</t>
+  </si>
+  <si>
+    <t>Oleksandr Kucherenko</t>
+  </si>
+  <si>
+    <t>Kyrylo Taran</t>
+  </si>
+  <si>
+    <t>Sergiy Vakula</t>
+  </si>
+  <si>
+    <t>Oleksandr Kireyev</t>
+  </si>
+  <si>
+    <t>Vladyslav Selishchev</t>
+  </si>
+  <si>
+    <t>Artem Kalnev</t>
+  </si>
+  <si>
+    <t>Yevhen Sayko</t>
+  </si>
+  <si>
+    <t>Tymofii Istomin</t>
+  </si>
+  <si>
+    <t>Taras Malynovskyi</t>
+  </si>
+  <si>
+    <t>Oleksandr Gnyirya</t>
+  </si>
+  <si>
+    <t>Vladislav Burlaka</t>
+  </si>
+  <si>
+    <t>Andrii Pozdniakov</t>
+  </si>
+  <si>
+    <t>Vova Zaychuk</t>
+  </si>
+  <si>
+    <t>Matviy Terehow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,13 +210,8 @@
       <name val="Noto Sans"/>
     </font>
     <font>
-      <sz val="7.5"/>
+      <sz val="10"/>
       <name val="Noto Sans"/>
-    </font>
-    <font>
-      <sz val="7.5"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -487,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -500,9 +247,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,7 +532,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K11" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -846,13 +590,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>45644</v>
@@ -880,7 +624,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
